--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="136">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,148 +40,157 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>complaints</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>lowest</t>
+    <t>uncertainty</t>
   </si>
   <si>
     <t>infected</t>
   </si>
   <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
   </si>
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>low</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>cut</t>
   </si>
   <si>
     <t>struggling</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>saudi</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>risk</t>
@@ -190,15 +199,24 @@
     <t>stop</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
@@ -208,6 +226,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -217,7 +238,7 @@
     <t>amazing</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
   </si>
   <si>
     <t>sharing</t>
@@ -226,42 +247,39 @@
     <t>wow</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -271,34 +289,64 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>wish</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
   <si>
     <t>growth</t>
@@ -307,72 +355,39 @@
     <t>ready</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>kind</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -382,25 +397,31 @@
     <t>protect</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
+    <t>shop</t>
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -766,10 +787,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -827,13 +848,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -845,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -877,13 +898,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,16 +919,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -919,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -927,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -945,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -969,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -977,13 +998,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8947368421052632</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1019,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1048,16 +1069,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1069,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1077,13 +1098,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,31 +1116,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>34</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8">
-        <v>0.9375</v>
-      </c>
-      <c r="L8">
-        <v>15</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1148,16 +1169,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9375</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1177,13 +1198,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8664383561643836</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1195,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K10">
-        <v>0.9302325581395349</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1219,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1227,13 +1248,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.84</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1245,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K11">
         <v>0.9230769230769231</v>
@@ -1277,13 +1298,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8333333333333334</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,31 +1316,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K12">
-        <v>0.9166666666666666</v>
+        <v>0.9138381201044387</v>
       </c>
       <c r="L12">
+        <v>350</v>
+      </c>
+      <c r="M12">
+        <v>350</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>33</v>
-      </c>
-      <c r="M12">
-        <v>33</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1327,13 +1348,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.84</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K13">
-        <v>0.9138381201044387</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L13">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1369,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>33</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1377,13 +1398,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7931034482758621</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1395,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1419,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1427,13 +1448,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7826086956521739</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1445,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K15">
-        <v>0.8962264150943396</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L15">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1469,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1477,13 +1498,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7692307692307693</v>
+        <v>0.8125</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1495,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K16">
-        <v>0.8947368421052632</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1519,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1527,13 +1548,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7666666666666667</v>
+        <v>0.8125</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K17">
-        <v>0.8943661971830986</v>
+        <v>0.890625</v>
       </c>
       <c r="L17">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="M17">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1569,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1577,13 +1598,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7647058823529411</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1595,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K18">
-        <v>0.8936170212765957</v>
+        <v>0.8875</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1619,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1627,13 +1648,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7391304347826086</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1648,16 +1669,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K19">
-        <v>0.8928571428571429</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1669,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1677,13 +1698,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7368421052631579</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,16 +1719,16 @@
         <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K20">
-        <v>0.88125</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L20">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1719,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1727,13 +1748,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.725</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1745,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K21">
-        <v>0.8671875</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L21">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="M21">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1769,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1777,13 +1798,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.7131782945736435</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C22">
-        <v>368</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>368</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1795,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>148</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K22">
         <v>0.8620689655172413</v>
@@ -1827,13 +1848,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.7037037037037037</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1845,10 +1866,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K23">
         <v>0.8611111111111112</v>
@@ -1877,7 +1898,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.7</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -1895,19 +1916,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K24">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L24">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1919,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1927,13 +1948,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6956521739130435</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1948,16 +1969,16 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K25">
-        <v>0.8253968253968254</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1969,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1977,13 +1998,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6923076923076923</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1995,19 +2016,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2019,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2027,13 +2048,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6818181818181818</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>363</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2045,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K27">
-        <v>0.7777777777777778</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2069,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2077,13 +2098,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6818181818181818</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2095,19 +2116,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K28">
-        <v>0.775</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2119,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2127,13 +2148,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6779661016949152</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2145,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K29">
-        <v>0.7714285714285715</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2169,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2177,13 +2198,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6772486772486772</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C30">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2195,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K30">
-        <v>0.7708333333333334</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2219,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2227,13 +2248,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2245,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K31">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2269,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2277,13 +2298,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6538461538461539</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2295,19 +2316,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K32">
-        <v>0.7647058823529411</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2319,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2327,13 +2348,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6470588235294118</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2345,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K33">
-        <v>0.76</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2369,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2377,13 +2398,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2395,19 +2416,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K34">
-        <v>0.7588235294117647</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L34">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2419,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2427,13 +2448,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.625</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2445,19 +2466,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2469,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2477,13 +2498,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6241610738255033</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C36">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2495,19 +2516,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2519,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2527,13 +2548,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.6181818181818182</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2545,19 +2566,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K37">
-        <v>0.75</v>
+        <v>0.7112970711297071</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2569,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2577,13 +2598,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.6129032258064516</v>
+        <v>0.6241610738255033</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2595,19 +2616,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K38">
-        <v>0.7391304347826086</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2619,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2627,13 +2648,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5945945945945946</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2645,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K39">
-        <v>0.7368421052631579</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2669,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2677,13 +2698,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5925925925925926</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="C40">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="D40">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2695,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K40">
-        <v>0.7322033898305085</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L40">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="M40">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2719,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2727,13 +2748,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5861111111111111</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C41">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2745,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K41">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2769,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2777,13 +2798,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C42">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2795,19 +2816,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K42">
-        <v>0.7154811715481172</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L42">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2819,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2827,37 +2848,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5769230769230769</v>
+        <v>0.53125</v>
       </c>
       <c r="C43">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
         <v>15</v>
       </c>
-      <c r="D43">
-        <v>15</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>11</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K43">
-        <v>0.7127659574468085</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L43">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2869,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2877,13 +2898,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5483870967741935</v>
+        <v>0.4933333333333333</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2895,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K44">
-        <v>0.7078651685393258</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L44">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2919,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2927,31 +2948,31 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5333333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
         <v>16</v>
       </c>
-      <c r="D45">
-        <v>16</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>14</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K45">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L45">
         <v>19</v>
@@ -2969,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2977,13 +2998,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4821428571428572</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C46">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2995,13 +3016,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K46">
-        <v>0.7037037037037037</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L46">
         <v>19</v>
@@ -3019,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3027,13 +3048,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4814814814814815</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3045,19 +3066,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K47">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3069,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3077,13 +3098,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.48</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3095,19 +3116,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K48">
-        <v>0.6862745098039216</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L48">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3119,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3148,16 +3169,16 @@
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K49">
-        <v>0.6666666666666666</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3169,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3177,7 +3198,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4193548387096774</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C50">
         <v>13</v>
@@ -3195,19 +3216,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K50">
-        <v>0.6285714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L50">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3219,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3227,13 +3248,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3506493506493507</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C51">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3245,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K51">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3269,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3277,13 +3298,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.2817460317460317</v>
+        <v>0.3375</v>
       </c>
       <c r="C52">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D52">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3295,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K52">
-        <v>0.625</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3319,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3327,13 +3348,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.2444444444444444</v>
+        <v>0.325</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3345,19 +3366,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K53">
-        <v>0.6190476190476191</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3369,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3377,13 +3398,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1045576407506702</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C54">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D54">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3395,19 +3416,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>334</v>
+        <v>52</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K54">
-        <v>0.6190476190476191</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="L54">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3419,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3427,37 +3448,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.007006071929005138</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="E55">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>2126</v>
+        <v>177</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K55">
-        <v>0.5833333333333334</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3469,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3477,28 +3498,28 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.002810116419108792</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>4968</v>
+        <v>308</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K56">
         <v>0.5652173913043478</v>
@@ -3523,44 +3544,92 @@
       </c>
     </row>
     <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.04666666666666667</v>
+      </c>
+      <c r="C57">
+        <v>14</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>286</v>
+      </c>
       <c r="J57" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K57">
-        <v>0.5476190476190477</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L57">
+        <v>13</v>
+      </c>
+      <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.01136842105263158</v>
+      </c>
+      <c r="C58">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>31</v>
+      </c>
+      <c r="E58">
+        <v>0.13</v>
+      </c>
+      <c r="F58">
+        <v>0.87</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>2348</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K58">
+        <v>0.5111111111111111</v>
+      </c>
+      <c r="L58">
         <v>23</v>
       </c>
-      <c r="M57">
+      <c r="M58">
         <v>23</v>
       </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K58">
-        <v>0.5161290322580645</v>
-      </c>
-      <c r="L58">
-        <v>16</v>
-      </c>
-      <c r="M58">
-        <v>16</v>
-      </c>
       <c r="N58">
         <v>1</v>
       </c>
@@ -3571,21 +3640,45 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.007402639201802382</v>
+      </c>
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>23</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>3084</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K59">
-        <v>0.5111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3597,21 +3690,45 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:17">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.006545114539504441</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>0.22</v>
+      </c>
+      <c r="F60">
+        <v>0.78</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>2125</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K60">
-        <v>0.5</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3623,15 +3740,39 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:17">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.003298409002716337</v>
+      </c>
+      <c r="C61">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>0.39</v>
+      </c>
+      <c r="F61">
+        <v>0.61</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>5137</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K61">
-        <v>0.4794520547945205</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L61">
         <v>35</v>
@@ -3649,21 +3790,45 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:17">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.002808988764044944</v>
+      </c>
+      <c r="C62">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>26</v>
+      </c>
+      <c r="E62">
+        <v>0.46</v>
+      </c>
+      <c r="F62">
+        <v>0.54</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>4970</v>
+      </c>
       <c r="J62" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K62">
-        <v>0.4642857142857143</v>
+        <v>0.4375</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3675,21 +3840,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K63">
-        <v>0.4358974358974359</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="L63">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3701,21 +3866,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K64">
-        <v>0.40625</v>
+        <v>0.4</v>
       </c>
       <c r="L64">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M64">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3727,21 +3892,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K65">
-        <v>0.3114754098360656</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L65">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3753,21 +3918,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K66">
-        <v>0.3050847457627119</v>
+        <v>0.2459016393442623</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3779,15 +3944,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K67">
-        <v>0.2954545454545455</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L67">
         <v>13</v>
@@ -3805,21 +3970,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>31</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K68">
-        <v>0.01083333333333333</v>
+        <v>0.0225</v>
       </c>
       <c r="L68">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3831,33 +3996,33 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1187</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="K69">
-        <v>0.002810116419108792</v>
+        <v>0.004377736085053158</v>
       </c>
       <c r="L69">
         <v>14</v>
       </c>
       <c r="M69">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N69">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="O69">
-        <v>0.5</v>
+        <v>0.18</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>4968</v>
+        <v>3184</v>
       </c>
     </row>
   </sheetData>
